--- a/biology/Botanique/Asplenium_fontanum/Asplenium_fontanum.xlsx
+++ b/biology/Botanique/Asplenium_fontanum/Asplenium_fontanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asplenium fontanum ou Doradille des fontaines est une espèce de fougères de la famille des Aspleniaceae.
-On considère que cette plante fait partie de la flore obsidionale de France[2].
+On considère que cette plante fait partie de la flore obsidionale de France.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aspidium fontanum (L.) Sw.
 Aspidium halleri (Roth) Willd.
@@ -551,7 +565,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Asplenium fontanum ssp. fontanum: Europe et Afrique du Nord.
 Asplenium fontanum ssp. pseudofontanum: Asie du Turkestan au Népal.</t>
@@ -582,7 +598,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses frondes peuvent atteindre 30 centimètres de hauteur.
 </t>
@@ -613,7 +631,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce sur les roches et les amas pierreux, jusqu'à 2 200 mètres d'altitude.
 </t>
